--- a/images/SynthesisMatrix_Template.xlsx
+++ b/images/SynthesisMatrix_Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Synthesis Matrix</t>
   </si>
@@ -50,8 +50,10 @@
     <t>Source #3</t>
   </si>
   <si>
-    <t xml:space="preserve">Adapted from "Writing a Literature Review and Using a Synthesis Matrix," by NC State University Writing and Speaking Tutorial Service Tutors 2006, licensed
- under a Creative Commons Attribution-NonCommercial-ShareAlike 3.0 Unported License </t>
+    <t xml:space="preserve">Writing A Literature Review and Using a Synthesis Matrix by NC State University Writing and Speaking Tutorial Service Tutors (2006) is licensed under a CC BY-NC-SA 3.0 Unported License. </t>
+  </si>
+  <si>
+    <t>Main Idea D</t>
   </si>
 </sst>
 </file>
@@ -381,13 +383,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="2" max="4" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -429,6 +437,11 @@
     <row r="8" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
